--- a/contratos/contratos-12-2020.xlsx
+++ b/contratos/contratos-12-2020.xlsx
@@ -1081,7 +1081,7 @@
     <t>IMAGEN SISTEMAS DE COPIADO S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1093,7 +1093,7 @@
     <t>PALMA RODOLFO GABRIEL</t>
   </si>
   <si>
-    <t>RONDONI, LUCIANO MATIAS</t>
+    <t>RONDONI. LUCIANO MATIAS</t>
   </si>
   <si>
     <t>CONSORCIO EDIFICIO DEL SISTEMA DE PREVISION SOCIAL PARA MEDICOS Y BIOQUIMICOS DE E. RIOS.</t>
@@ -1297,7 +1297,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROJAS PEDRO MARTIN</t>
@@ -1315,7 +1315,7 @@
     <t>VIVESCAS S.R.L.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>FORCLAZ JULIAN MARIA</t>
@@ -1348,7 +1348,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1450,7 +1450,7 @@
     <t>COOPERATIVA DE TRABAJO URUGUAY BETEL LTDA.</t>
   </si>
   <si>
-    <t>DENING BLANCO, CRISTIAN DAVID</t>
+    <t>DENING BLANCO. CRISTIAN DAVID</t>
   </si>
   <si>
     <t>GUADA S.R.L.</t>
@@ -1462,7 +1462,7 @@
     <t>IC CONSTRUCTORA S.R.L.</t>
   </si>
   <si>
-    <t>ODIARD, OSCAR HERNAN</t>
+    <t>ODIARD. OSCAR HERNAN</t>
   </si>
   <si>
     <t>COCHERIA SCOLAMIERI S.R.L.</t>
@@ -1735,7 +1735,7 @@
     <t>MAGRI REPUESTOS</t>
   </si>
   <si>
-    <t>PARRAVICINI VIRGINIA VANINA, VIRGINIA VANINA</t>
+    <t>PARRAVICINI VIRGINIA VANINA. VIRGINIA VANINA</t>
   </si>
   <si>
     <t>TRANSAGRO</t>
@@ -1924,727 +1924,727 @@
     <t>197</t>
   </si>
   <si>
-    <t>6.048,00</t>
-  </si>
-  <si>
-    <t>12.300,00</t>
-  </si>
-  <si>
-    <t>39.600,00</t>
-  </si>
-  <si>
-    <t>962.000,00</t>
-  </si>
-  <si>
-    <t>925.960,00</t>
-  </si>
-  <si>
-    <t>106.152,36</t>
-  </si>
-  <si>
-    <t>12.927,00</t>
-  </si>
-  <si>
-    <t>13.510,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>3.090,00</t>
-  </si>
-  <si>
-    <t>11.960,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>30.935,00</t>
-  </si>
-  <si>
-    <t>5.805,50</t>
-  </si>
-  <si>
-    <t>990.356,00</t>
-  </si>
-  <si>
-    <t>24.200,00</t>
-  </si>
-  <si>
-    <t>3.951,71</t>
-  </si>
-  <si>
-    <t>44.150,00</t>
-  </si>
-  <si>
-    <t>22.950,00</t>
-  </si>
-  <si>
-    <t>2.427.478,45</t>
-  </si>
-  <si>
-    <t>21.080,00</t>
-  </si>
-  <si>
-    <t>1.118.868,80</t>
-  </si>
-  <si>
-    <t>15.325,60</t>
-  </si>
-  <si>
-    <t>115.560,00</t>
-  </si>
-  <si>
-    <t>1.857.275,68</t>
-  </si>
-  <si>
-    <t>8.736,00</t>
-  </si>
-  <si>
-    <t>1.676,36</t>
-  </si>
-  <si>
-    <t>162.361,98</t>
-  </si>
-  <si>
-    <t>3.536,20</t>
-  </si>
-  <si>
-    <t>64.624,85</t>
-  </si>
-  <si>
-    <t>54.754,94</t>
-  </si>
-  <si>
-    <t>20.800,00</t>
-  </si>
-  <si>
-    <t>19.850,00</t>
-  </si>
-  <si>
-    <t>48.333,67</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>1.520,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>15.525,00</t>
-  </si>
-  <si>
-    <t>870,42</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>6.604.262,12</t>
-  </si>
-  <si>
-    <t>48.500,00</t>
-  </si>
-  <si>
-    <t>428.957,42</t>
-  </si>
-  <si>
-    <t>13.304,00</t>
-  </si>
-  <si>
-    <t>23.700,00</t>
-  </si>
-  <si>
-    <t>618.336,00</t>
-  </si>
-  <si>
-    <t>199.297,89</t>
-  </si>
-  <si>
-    <t>889.900,00</t>
-  </si>
-  <si>
-    <t>9.805,95</t>
-  </si>
-  <si>
-    <t>30.379,00</t>
-  </si>
-  <si>
-    <t>50.408,67</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>11.870,76</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>9.905,46</t>
-  </si>
-  <si>
-    <t>51.000,00</t>
-  </si>
-  <si>
-    <t>106.460,86</t>
-  </si>
-  <si>
-    <t>13.695,95</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>12.632,40</t>
-  </si>
-  <si>
-    <t>2.692,00</t>
-  </si>
-  <si>
-    <t>3.115,30</t>
-  </si>
-  <si>
-    <t>12.063,90</t>
-  </si>
-  <si>
-    <t>167.505,95</t>
-  </si>
-  <si>
-    <t>18.255,00</t>
-  </si>
-  <si>
-    <t>160.384,68</t>
-  </si>
-  <si>
-    <t>261.645,45</t>
-  </si>
-  <si>
-    <t>37.244,37</t>
-  </si>
-  <si>
-    <t>20.100,96</t>
-  </si>
-  <si>
-    <t>36.500,00</t>
-  </si>
-  <si>
-    <t>7.212,27</t>
-  </si>
-  <si>
-    <t>77.015,00</t>
-  </si>
-  <si>
-    <t>4.660,00</t>
-  </si>
-  <si>
-    <t>45.830,40</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>41.160,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>112.000,00</t>
-  </si>
-  <si>
-    <t>3.701,51</t>
-  </si>
-  <si>
-    <t>5.664,00</t>
-  </si>
-  <si>
-    <t>26.155,50</t>
-  </si>
-  <si>
-    <t>153.220,92</t>
-  </si>
-  <si>
-    <t>187.200,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>274.650,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>56.850,00</t>
-  </si>
-  <si>
-    <t>7.886,00</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>597.548,00</t>
-  </si>
-  <si>
-    <t>122.219,76</t>
-  </si>
-  <si>
-    <t>21.200,00</t>
-  </si>
-  <si>
-    <t>22.800,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>23.100,00</t>
-  </si>
-  <si>
-    <t>34,20</t>
-  </si>
-  <si>
-    <t>8.880,00</t>
-  </si>
-  <si>
-    <t>260.660,93</t>
-  </si>
-  <si>
-    <t>1.680,00</t>
-  </si>
-  <si>
-    <t>115.050,80</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>29.800,00</t>
-  </si>
-  <si>
-    <t>19.970,81</t>
-  </si>
-  <si>
-    <t>31.200,00</t>
-  </si>
-  <si>
-    <t>774,00</t>
-  </si>
-  <si>
-    <t>34.200,00</t>
-  </si>
-  <si>
-    <t>2.320,00</t>
-  </si>
-  <si>
-    <t>759,80</t>
-  </si>
-  <si>
-    <t>2.296,62</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>16.810,00</t>
-  </si>
-  <si>
-    <t>16.906,00</t>
-  </si>
-  <si>
-    <t>23.992,00</t>
-  </si>
-  <si>
-    <t>16.410,00</t>
-  </si>
-  <si>
-    <t>1.280,00</t>
-  </si>
-  <si>
-    <t>7.400,00</t>
-  </si>
-  <si>
-    <t>157.362,06</t>
-  </si>
-  <si>
-    <t>46.200,90</t>
-  </si>
-  <si>
-    <t>9.590,00</t>
-  </si>
-  <si>
-    <t>60.536,00</t>
-  </si>
-  <si>
-    <t>33.240,00</t>
-  </si>
-  <si>
-    <t>22.977,90</t>
-  </si>
-  <si>
-    <t>715,80</t>
-  </si>
-  <si>
-    <t>40.226,00</t>
-  </si>
-  <si>
-    <t>3.350,00</t>
-  </si>
-  <si>
-    <t>62.350,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>14.670,00</t>
-  </si>
-  <si>
-    <t>1.874,59</t>
-  </si>
-  <si>
-    <t>2.460,00</t>
-  </si>
-  <si>
-    <t>138.000,00</t>
-  </si>
-  <si>
-    <t>55.860,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>19.172,51</t>
-  </si>
-  <si>
-    <t>90.000,00</t>
-  </si>
-  <si>
-    <t>1.420.000,00</t>
-  </si>
-  <si>
-    <t>15.900,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>27.704,94</t>
-  </si>
-  <si>
-    <t>8.855,95</t>
-  </si>
-  <si>
-    <t>23.338,00</t>
-  </si>
-  <si>
-    <t>27.520,00</t>
-  </si>
-  <si>
-    <t>12.385.500,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>31.000,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>20.870,00</t>
-  </si>
-  <si>
-    <t>58.923,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>23.205,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>14.477,54</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>498.000,00</t>
-  </si>
-  <si>
-    <t>990,71</t>
-  </si>
-  <si>
-    <t>32.040,00</t>
-  </si>
-  <si>
-    <t>42.200,00</t>
-  </si>
-  <si>
-    <t>61.980,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>8.700,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>1.930,00</t>
-  </si>
-  <si>
-    <t>20.310,00</t>
-  </si>
-  <si>
-    <t>29.460,00</t>
-  </si>
-  <si>
-    <t>256.907,96</t>
-  </si>
-  <si>
-    <t>57.568,00</t>
-  </si>
-  <si>
-    <t>30.472,35</t>
-  </si>
-  <si>
-    <t>35.890,00</t>
-  </si>
-  <si>
-    <t>45.200,00</t>
-  </si>
-  <si>
-    <t>9.070,00</t>
-  </si>
-  <si>
-    <t>631,86</t>
-  </si>
-  <si>
-    <t>954,70</t>
-  </si>
-  <si>
-    <t>9.406,30</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>2.822,23</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>8.250,00</t>
-  </si>
-  <si>
-    <t>14.400,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>40.720,00</t>
-  </si>
-  <si>
-    <t>25.513,13</t>
-  </si>
-  <si>
-    <t>440.000,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>74.235,83</t>
-  </si>
-  <si>
-    <t>16.191.310,68</t>
-  </si>
-  <si>
-    <t>24.800,00</t>
-  </si>
-  <si>
-    <t>23.500,00</t>
-  </si>
-  <si>
-    <t>39.850,00</t>
-  </si>
-  <si>
-    <t>21.694,00</t>
-  </si>
-  <si>
-    <t>435.600,00</t>
-  </si>
-  <si>
-    <t>476.000,00</t>
-  </si>
-  <si>
-    <t>508.120,00</t>
-  </si>
-  <si>
-    <t>405.940,00</t>
-  </si>
-  <si>
-    <t>346.520,00</t>
-  </si>
-  <si>
-    <t>337.000,00</t>
-  </si>
-  <si>
-    <t>365.840,00</t>
-  </si>
-  <si>
-    <t>643.000,00</t>
-  </si>
-  <si>
-    <t>879.220,00</t>
-  </si>
-  <si>
-    <t>1.122.000,00</t>
-  </si>
-  <si>
-    <t>377.320,00</t>
-  </si>
-  <si>
-    <t>674.000,00</t>
-  </si>
-  <si>
-    <t>700.520,00</t>
-  </si>
-  <si>
-    <t>664.000,00</t>
-  </si>
-  <si>
-    <t>989.320,00</t>
-  </si>
-  <si>
-    <t>990.560,00</t>
-  </si>
-  <si>
-    <t>367.143,00</t>
-  </si>
-  <si>
-    <t>1.185.800,00</t>
-  </si>
-  <si>
-    <t>925.641,61</t>
-  </si>
-  <si>
-    <t>23.690,00</t>
-  </si>
-  <si>
-    <t>66.391,93</t>
-  </si>
-  <si>
-    <t>25.234,00</t>
-  </si>
-  <si>
-    <t>450.233,00</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>139.968,64</t>
-  </si>
-  <si>
-    <t>12.100,00</t>
-  </si>
-  <si>
-    <t>196.590,00</t>
-  </si>
-  <si>
-    <t>18.100,00</t>
-  </si>
-  <si>
-    <t>6.785,75</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>16.010,00</t>
+    <t>6048.00</t>
+  </si>
+  <si>
+    <t>12300.00</t>
+  </si>
+  <si>
+    <t>39600.00</t>
+  </si>
+  <si>
+    <t>962000.00</t>
+  </si>
+  <si>
+    <t>925960.00</t>
+  </si>
+  <si>
+    <t>106152.36</t>
+  </si>
+  <si>
+    <t>12927.00</t>
+  </si>
+  <si>
+    <t>13510.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>3090.00</t>
+  </si>
+  <si>
+    <t>11960.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>30935.00</t>
+  </si>
+  <si>
+    <t>5805.50</t>
+  </si>
+  <si>
+    <t>990356.00</t>
+  </si>
+  <si>
+    <t>24200.00</t>
+  </si>
+  <si>
+    <t>3951.71</t>
+  </si>
+  <si>
+    <t>44150.00</t>
+  </si>
+  <si>
+    <t>22950.00</t>
+  </si>
+  <si>
+    <t>2427478.45</t>
+  </si>
+  <si>
+    <t>21080.00</t>
+  </si>
+  <si>
+    <t>1118868.80</t>
+  </si>
+  <si>
+    <t>15325.60</t>
+  </si>
+  <si>
+    <t>115560.00</t>
+  </si>
+  <si>
+    <t>1857275.68</t>
+  </si>
+  <si>
+    <t>8736.00</t>
+  </si>
+  <si>
+    <t>1676.36</t>
+  </si>
+  <si>
+    <t>162361.98</t>
+  </si>
+  <si>
+    <t>3536.20</t>
+  </si>
+  <si>
+    <t>64624.85</t>
+  </si>
+  <si>
+    <t>54754.94</t>
+  </si>
+  <si>
+    <t>20800.00</t>
+  </si>
+  <si>
+    <t>19850.00</t>
+  </si>
+  <si>
+    <t>48333.67</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>1520.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>15525.00</t>
+  </si>
+  <si>
+    <t>870.42</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>6604262.12</t>
+  </si>
+  <si>
+    <t>48500.00</t>
+  </si>
+  <si>
+    <t>428957.42</t>
+  </si>
+  <si>
+    <t>13304.00</t>
+  </si>
+  <si>
+    <t>23700.00</t>
+  </si>
+  <si>
+    <t>618336.00</t>
+  </si>
+  <si>
+    <t>199297.89</t>
+  </si>
+  <si>
+    <t>889900.00</t>
+  </si>
+  <si>
+    <t>9805.95</t>
+  </si>
+  <si>
+    <t>30379.00</t>
+  </si>
+  <si>
+    <t>50408.67</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>11870.76</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>9905.46</t>
+  </si>
+  <si>
+    <t>51000.00</t>
+  </si>
+  <si>
+    <t>106460.86</t>
+  </si>
+  <si>
+    <t>13695.95</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>12632.40</t>
+  </si>
+  <si>
+    <t>2692.00</t>
+  </si>
+  <si>
+    <t>3115.30</t>
+  </si>
+  <si>
+    <t>12063.90</t>
+  </si>
+  <si>
+    <t>167505.95</t>
+  </si>
+  <si>
+    <t>18255.00</t>
+  </si>
+  <si>
+    <t>160384.68</t>
+  </si>
+  <si>
+    <t>261645.45</t>
+  </si>
+  <si>
+    <t>37244.37</t>
+  </si>
+  <si>
+    <t>20100.96</t>
+  </si>
+  <si>
+    <t>36500.00</t>
+  </si>
+  <si>
+    <t>7212.27</t>
+  </si>
+  <si>
+    <t>77015.00</t>
+  </si>
+  <si>
+    <t>4660.00</t>
+  </si>
+  <si>
+    <t>45830.40</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>41160.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>112000.00</t>
+  </si>
+  <si>
+    <t>3701.51</t>
+  </si>
+  <si>
+    <t>5664.00</t>
+  </si>
+  <si>
+    <t>26155.50</t>
+  </si>
+  <si>
+    <t>153220.92</t>
+  </si>
+  <si>
+    <t>187200.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>274650.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>56850.00</t>
+  </si>
+  <si>
+    <t>7886.00</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>597548.00</t>
+  </si>
+  <si>
+    <t>122219.76</t>
+  </si>
+  <si>
+    <t>21200.00</t>
+  </si>
+  <si>
+    <t>22800.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>23100.00</t>
+  </si>
+  <si>
+    <t>34.20</t>
+  </si>
+  <si>
+    <t>8880.00</t>
+  </si>
+  <si>
+    <t>260660.93</t>
+  </si>
+  <si>
+    <t>1680.00</t>
+  </si>
+  <si>
+    <t>115050.80</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>29800.00</t>
+  </si>
+  <si>
+    <t>19970.81</t>
+  </si>
+  <si>
+    <t>31200.00</t>
+  </si>
+  <si>
+    <t>774.00</t>
+  </si>
+  <si>
+    <t>34200.00</t>
+  </si>
+  <si>
+    <t>2320.00</t>
+  </si>
+  <si>
+    <t>759.80</t>
+  </si>
+  <si>
+    <t>2296.62</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>16810.00</t>
+  </si>
+  <si>
+    <t>16906.00</t>
+  </si>
+  <si>
+    <t>23992.00</t>
+  </si>
+  <si>
+    <t>16410.00</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>7400.00</t>
+  </si>
+  <si>
+    <t>157362.06</t>
+  </si>
+  <si>
+    <t>46200.90</t>
+  </si>
+  <si>
+    <t>9590.00</t>
+  </si>
+  <si>
+    <t>60536.00</t>
+  </si>
+  <si>
+    <t>33240.00</t>
+  </si>
+  <si>
+    <t>22977.90</t>
+  </si>
+  <si>
+    <t>715.80</t>
+  </si>
+  <si>
+    <t>40226.00</t>
+  </si>
+  <si>
+    <t>3350.00</t>
+  </si>
+  <si>
+    <t>62350.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>14670.00</t>
+  </si>
+  <si>
+    <t>1874.59</t>
+  </si>
+  <si>
+    <t>2460.00</t>
+  </si>
+  <si>
+    <t>138000.00</t>
+  </si>
+  <si>
+    <t>55860.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>19172.51</t>
+  </si>
+  <si>
+    <t>90000.00</t>
+  </si>
+  <si>
+    <t>1420000.00</t>
+  </si>
+  <si>
+    <t>15900.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>27704.94</t>
+  </si>
+  <si>
+    <t>8855.95</t>
+  </si>
+  <si>
+    <t>23338.00</t>
+  </si>
+  <si>
+    <t>27520.00</t>
+  </si>
+  <si>
+    <t>12385500.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>31000.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>20870.00</t>
+  </si>
+  <si>
+    <t>58923.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>23205.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>14477.54</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>498000.00</t>
+  </si>
+  <si>
+    <t>990.71</t>
+  </si>
+  <si>
+    <t>32040.00</t>
+  </si>
+  <si>
+    <t>42200.00</t>
+  </si>
+  <si>
+    <t>61980.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>8700.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>1930.00</t>
+  </si>
+  <si>
+    <t>20310.00</t>
+  </si>
+  <si>
+    <t>29460.00</t>
+  </si>
+  <si>
+    <t>256907.96</t>
+  </si>
+  <si>
+    <t>57568.00</t>
+  </si>
+  <si>
+    <t>30472.35</t>
+  </si>
+  <si>
+    <t>35890.00</t>
+  </si>
+  <si>
+    <t>45200.00</t>
+  </si>
+  <si>
+    <t>9070.00</t>
+  </si>
+  <si>
+    <t>631.86</t>
+  </si>
+  <si>
+    <t>954.70</t>
+  </si>
+  <si>
+    <t>9406.30</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>2822.23</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>8250.00</t>
+  </si>
+  <si>
+    <t>14400.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>40720.00</t>
+  </si>
+  <si>
+    <t>25513.13</t>
+  </si>
+  <si>
+    <t>440000.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>74235.83</t>
+  </si>
+  <si>
+    <t>16191310.68</t>
+  </si>
+  <si>
+    <t>24800.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>39850.00</t>
+  </si>
+  <si>
+    <t>21694.00</t>
+  </si>
+  <si>
+    <t>435600.00</t>
+  </si>
+  <si>
+    <t>476000.00</t>
+  </si>
+  <si>
+    <t>508120.00</t>
+  </si>
+  <si>
+    <t>405940.00</t>
+  </si>
+  <si>
+    <t>346520.00</t>
+  </si>
+  <si>
+    <t>337000.00</t>
+  </si>
+  <si>
+    <t>365840.00</t>
+  </si>
+  <si>
+    <t>643000.00</t>
+  </si>
+  <si>
+    <t>879220.00</t>
+  </si>
+  <si>
+    <t>1122000.00</t>
+  </si>
+  <si>
+    <t>377320.00</t>
+  </si>
+  <si>
+    <t>674000.00</t>
+  </si>
+  <si>
+    <t>700520.00</t>
+  </si>
+  <si>
+    <t>664000.00</t>
+  </si>
+  <si>
+    <t>989320.00</t>
+  </si>
+  <si>
+    <t>990560.00</t>
+  </si>
+  <si>
+    <t>367143.00</t>
+  </si>
+  <si>
+    <t>1185800.00</t>
+  </si>
+  <si>
+    <t>925641.61</t>
+  </si>
+  <si>
+    <t>23690.00</t>
+  </si>
+  <si>
+    <t>66391.93</t>
+  </si>
+  <si>
+    <t>25234.00</t>
+  </si>
+  <si>
+    <t>450233.00</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>139968.64</t>
+  </si>
+  <si>
+    <t>12100.00</t>
+  </si>
+  <si>
+    <t>196590.00</t>
+  </si>
+  <si>
+    <t>18100.00</t>
+  </si>
+  <si>
+    <t>6785.75</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>16010.00</t>
   </si>
 </sst>
 </file>
